--- a/Casos de prueba.xlsx
+++ b/Casos de prueba.xlsx
@@ -64,10 +64,10 @@
     <t>Negativo</t>
   </si>
   <si>
-    <t>Calcular envío - Ingresar código postal con carácteres especiales</t>
-  </si>
-  <si>
-    <t>Validar que el formulario no acepte carácteres especiales en su código postal durante el proceso de cálcular envío</t>
+    <t>Calcular envío - Ingresar código postal con caracteres especiales</t>
+  </si>
+  <si>
+    <t>Validar que el formulario no acepte caracteres especiales en su código postal durante el proceso de cálcular envío</t>
   </si>
   <si>
     <t>Tener conexión a internet</t>
@@ -96,7 +96,7 @@
     </r>
   </si>
   <si>
-    <t>El formulario no acepta código postal con carácteres especiales, generando un mensaje de error (regex)</t>
+    <t>El formulario no acepta código postal con caracteres especiales, generando un mensaje de error (regex)</t>
   </si>
   <si>
     <t xml:space="preserve">El formulario acepta código postal con caracteres especiales sin genera un mensaje de error </t>
@@ -158,7 +158,7 @@
     <t>Ingresar datos en formulario</t>
   </si>
   <si>
-    <t>Ingresar código postal con carácteres especiales</t>
+    <t>Ingresar código postal con caracteres especiales</t>
   </si>
   <si>
     <t xml:space="preserve">Presionar el botón calcular </t>
@@ -230,10 +230,10 @@
     <t>CP-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Formulario de registro - Ingresar carácteres especiales </t>
-  </si>
-  <si>
-    <t>Validar que el formulario de registro no acepte carácteres especiales en sus inputs</t>
+    <t xml:space="preserve">Formulario de registro - Ingresar caracteres especiales </t>
+  </si>
+  <si>
+    <t>Validar que el formulario de registro no acepte caracteres especiales en sus inputs</t>
   </si>
   <si>
     <t>Calle: "123"$%#@345     Nro: 123##@$%</t>
@@ -259,16 +259,16 @@
     </r>
   </si>
   <si>
-    <t>El formulario no acepta carácteres especiales en sus inputs, generando un mesaje de error (regex)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">El formulario acepta carácteres especiales en sus inputs </t>
+    <t>El formulario no acepta caracteres especiales en sus inputs, generando un mesaje de error (regex)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">El formulario acepta caracteres especiales en sus inputs </t>
     </r>
     <r>
       <rPr>
@@ -378,7 +378,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t xml:space="preserve">Ingresar carácteres especiales en los inputs </t>
+      <t xml:space="preserve">Ingresar caracteres especiales en los inputs </t>
     </r>
     <r>
       <rPr>
@@ -458,10 +458,10 @@
     <t>CP-05</t>
   </si>
   <si>
-    <t>Formulario para emitir factura - Ingresar carácteres alfanuméricos</t>
-  </si>
-  <si>
-    <t>Validar que el formulario para emitir factura no acepte carácteres alfanuméricos en sus inputs</t>
+    <t>Formulario para emitir factura - Ingresar caracteres alfanuméricos</t>
+  </si>
+  <si>
+    <t>Validar que el formulario para emitir factura no acepte caracteres alfanuméricos en sus inputs</t>
   </si>
   <si>
     <t>carina 123 / bravo 235</t>
@@ -487,16 +487,16 @@
     </r>
   </si>
   <si>
-    <t>El formulario no acepta carácteres alfanuméricos en sus inputs, generando un mensaje de error (regex)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">El formulario acepta carácteres alfanuméricos en sus inputs </t>
+    <t>El formulario no acepta caracteres alfanuméricos en sus inputs, generando un mensaje de error (regex)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">El formulario acepta caracteres alfanuméricos en sus inputs </t>
     </r>
     <r>
       <rPr>
@@ -667,7 +667,7 @@
         <color theme="1"/>
         <sz val="11.0"/>
       </rPr>
-      <t>, carácteres alfanuméricos</t>
+      <t>, caracteres alfanuméricos</t>
     </r>
   </si>
   <si>
@@ -2304,7 +2304,7 @@
     <xdr:ext cx="323850" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2332,7 +2332,7 @@
     <xdr:ext cx="209550" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image7.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2360,7 +2360,7 @@
     <xdr:ext cx="323850" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2388,7 +2388,7 @@
     <xdr:ext cx="314325" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2416,7 +2416,7 @@
     <xdr:ext cx="333375" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2528,7 +2528,7 @@
     <xdr:ext cx="609600" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
